--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-practitioner.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-practitioner.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2378" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2378" uniqueCount="448">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T09:56:16+01:00</t>
+    <t>2025-01-21T11:06:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>CARA (https://www.cara.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -240,6 +240,9 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: eCH-Standards</t>
+  </si>
+  <si>
     <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
@@ -250,9 +253,6 @@
   </si>
   <si>
     <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: eCH-Standards</t>
   </si>
   <si>
     <t/>
@@ -430,7 +430,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -606,372 +606,389 @@
     <t>Often, specific identities are assigned for the agent.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:$this}
+</t>
+  </si>
+  <si>
+    <t>PRD-7 (or XCN.1)</t>
+  </si>
+  <si>
+    <t>./id</t>
+  </si>
+  <si>
+    <t>./Identifiers</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.id</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>./IdentifierType</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>./Value</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-organization)
+</t>
+  </si>
+  <si>
+    <t>✕ This element will be removed in PML(C) documents</t>
+  </si>
+  <si>
+    <t>✕ Unsupported reference. It'll be stripped when generating PML(C) documents.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>./IdentifierIssuingAuthority</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:GLN</t>
+  </si>
+  <si>
+    <t>GLN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-gln-identifier}
+</t>
+  </si>
+  <si>
+    <t>GLN (Global Location Number)</t>
+  </si>
+  <si>
+    <t>See [GLN](http://fhir.ch/ig/ch-term/NamingSystem/gln)</t>
+  </si>
+  <si>
+    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="urn:oid:2.51.1.3"/&gt;
+&lt;/valueIdentifier&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
+    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:GLN.id</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:GLN.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:GLN.use</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:GLN.type</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:GLN.system</t>
+  </si>
+  <si>
+    <t>urn:oid:2.51.1.3</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:GLN.value</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+gln-length:GLN must be exactly 13 characters long {matches('^[0-9]{13}$')}gln-modulus-10:GLN must pass the modulus 10 check - https://www.gs1.org/services/how-calculate-check-digit-manually {(((10-((substring(0,1).toInteger()*1)+(substring(1,1).toInteger()*3)+(substring(2,1).toInteger()*1)+(substring(3,1).toInteger()*3)+(substring(4,1).toInteger()*1)+(substring(5,1).toInteger()*3)+(substring(6,1).toInteger()*1)+(substring(7,1).toInteger()*3)+(substring(8,1).toInteger()*1)+(substring(9,1).toInteger()*3)+(substring(10,1).toInteger()*1)+(substring(11,1).toInteger()*3))mod(10))mod(10))=substring(12,1).toInteger())}gln-startswith76:GLN must start with 76 for Swiss HCP {startsWith('76')}gln-length-error:GLN must be exactly 13 characters long {true and matches('^[0-9]{13}$')}gln-modulus-10-error:GLN must pass the modulus 10 check - https://www.gs1.org/services/how-calculate-check-digit-manually {true and (((10-((substring(0,1).toInteger()*1)+(substring(1,1).toInteger()*3)+(substring(2,1).toInteger()*1)+(substring(3,1).toInteger()*3)+(substring(4,1).toInteger()*1)+(substring(5,1).toInteger()*3)+(substring(6,1).toInteger()*1)+(substring(7,1).toInteger()*3)+(substring(8,1).toInteger()*1)+(substring(9,1).toInteger()*3)+(substring(10,1).toInteger()*1)+(substring(11,1).toInteger()*3))mod(10))mod(10))=substring(12,1).toInteger())}gln-startswith76-error:GLN must start with 76 for Swiss HCP {true and startsWith('76')}</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:GLN.period</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:GLN.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:ZSR</t>
+  </si>
+  <si>
+    <t>ZSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-zsr-identifier}
+</t>
+  </si>
+  <si>
+    <t>ZSR (Zahlstellenregister), RCC (Registre des codes-créanciers), RCC (Registro dei codici creditori)</t>
+  </si>
+  <si>
+    <t>The [ZSR/RCC](http://fhir.ch/ig/ch-term/NamingSystem/zsr) number is issued to self-employed, natural or legal persons (organisations) who can and want to work at the expense of health insurance.</t>
+  </si>
+  <si>
+    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="urn:oid:2.16.756.5.30.1.123.100.2.1.1"/&gt;
+&lt;/valueIdentifier&gt;</t>
+  </si>
+  <si>
+    <t>Practitioner.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If the practitioner is not in use by one organization, then it should mark the period on the PractitonerRole with an end date (even if they are active) as they may be active in another role.</t>
+  </si>
+  <si>
+    <t>Need to be able to mark a practitioner record as not to be used because it was created in error.</t>
+  </si>
+  <si>
+    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>./statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Practitioner.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HumanName {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-humanname}
+</t>
+  </si>
+  <si>
+    <t>Name of a human - parts and usage</t>
+  </si>
+  <si>
+    <t>A human's name with the ability to identify parts and usage.</t>
+  </si>
+  <si>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
+  </si>
+  <si>
+    <t>The name(s) that a Practitioner is known by. Where there are multiple, the name that the practitioner is usually known as should be used in the display.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ch-core-hm-1:if officalName with eCH-011 Extension is specified, it can only be put on a name where use attribute is official {family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='officialName').empty() or (family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='officialName').exists() and use='official')}ch-core-hm-2:if orginalName with eCH-011 Extension is specified, it can only be put on a name where use attribute is maiden {family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='originalName').empty() or ((family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='originalName').exists() and use='maiden'))}ch-core-hm-3:ch-ext-ech-11-name can only be put on a family name {descendants().extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name').count()=family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name').count()}ch-core-hm-4:ch-ext-ech-11-firstname can only be put on a given name {descendants().extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-firstname').count()=given.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-firstname').count()}</t>
+  </si>
+  <si>
+    <t>eCH-0011: nameData</t>
+  </si>
+  <si>
+    <t>XPN</t>
+  </si>
+  <si>
+    <t>EN (actually, PN)</t>
+  </si>
+  <si>
+    <t>ProviderName</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint
+</t>
+  </si>
+  <si>
+    <t>A contact detail for the practitioner (that apply to all roles)</t>
+  </si>
+  <si>
+    <t>A contact detail for the practitioner, e.g. a telephone number or an email address.</t>
+  </si>
+  <si>
+    <t>Person may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and to help with identification.  These typically will have home numbers, or mobile numbers that are not role specific.</t>
+  </si>
+  <si>
+    <t>Need to know how to reach a practitioner independent to any roles the practitioner may have.</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:system}
 </t>
   </si>
   <si>
-    <t>PRD-7 (or XCN.1)</t>
-  </si>
-  <si>
-    <t>./id</t>
-  </si>
-  <si>
-    <t>./Identifiers</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.id</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>./IdentifierType</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>./Value</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>./StartDate and ./EndDate</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-organization)
-</t>
-  </si>
-  <si>
-    <t>✕ This element will be removed in PML(C) documents</t>
-  </si>
-  <si>
-    <t>✕ Unsupported reference. It'll be stripped when generating PML(C) documents.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>./IdentifierIssuingAuthority</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:GLN</t>
-  </si>
-  <si>
-    <t>GLN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-gln-identifier}
-</t>
-  </si>
-  <si>
-    <t>An identifier intended for computation</t>
-  </si>
-  <si>
-    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:GLN.id</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:GLN.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:GLN.use</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:GLN.type</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:GLN.system</t>
-  </si>
-  <si>
-    <t>urn:oid:2.51.1.3</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:GLN.value</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-gln-length:GLN must be exactly 13 characters long {matches('^[0-9]{13}$')}gln-modulus-10:GLN must pass the modulus 10 check - https://www.gs1.org/services/how-calculate-check-digit-manually {(((10-((substring(0,1).toInteger()*1)+(substring(1,1).toInteger()*3)+(substring(2,1).toInteger()*1)+(substring(3,1).toInteger()*3)+(substring(4,1).toInteger()*1)+(substring(5,1).toInteger()*3)+(substring(6,1).toInteger()*1)+(substring(7,1).toInteger()*3)+(substring(8,1).toInteger()*1)+(substring(9,1).toInteger()*3)+(substring(10,1).toInteger()*1)+(substring(11,1).toInteger()*3))mod(10))mod(10))=substring(12,1).toInteger())}gln-startswith76:GLN must start with 76 for Swiss HCP {startsWith('76')}gln-length-error:GLN must be exactly 13 characters long {matches('^[0-9]{13}$')}gln-modulus-10-error:GLN must pass the modulus 10 check - https://www.gs1.org/services/how-calculate-check-digit-manually {(((10-((substring(0,1).toInteger()*1)+(substring(1,1).toInteger()*3)+(substring(2,1).toInteger()*1)+(substring(3,1).toInteger()*3)+(substring(4,1).toInteger()*1)+(substring(5,1).toInteger()*3)+(substring(6,1).toInteger()*1)+(substring(7,1).toInteger()*3)+(substring(8,1).toInteger()*1)+(substring(9,1).toInteger()*3)+(substring(10,1).toInteger()*1)+(substring(11,1).toInteger()*3))mod(10))mod(10))=substring(12,1).toInteger())}gln-startswith76-error:GLN must start with 76 for Swiss HCP {startsWith('76')}</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:GLN.period</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:GLN.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:ZSR</t>
-  </si>
-  <si>
-    <t>ZSR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-zsr-identifier}
-</t>
-  </si>
-  <si>
-    <t>ZSR (Zahlstellenregister), RCC (Registre des codes-créanciers), RCC (Registro dei codici creditori)</t>
-  </si>
-  <si>
-    <t>The [ZSR/RCC](http://fhir.ch/ig/ch-core/NamingSystem/zsr) number is issued to self-employed, natural or legal persons (organisations) who can and want to work at the expense of health insurance.</t>
-  </si>
-  <si>
-    <t>Practitioner.active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If the practitioner is not in use by one organization, then it should mark the period on the PractitonerRole with an end date (even if they are active) as they may be active in another role.</t>
-  </si>
-  <si>
-    <t>Need to be able to mark a practitioner record as not to be used because it was created in error.</t>
-  </si>
-  <si>
-    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
-  </si>
-  <si>
-    <t>./statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Practitioner.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HumanName {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-humanname}
-</t>
-  </si>
-  <si>
-    <t>Name of a human - parts and usage</t>
-  </si>
-  <si>
-    <t>A human's name with the ability to identify parts and usage.</t>
-  </si>
-  <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
-  </si>
-  <si>
-    <t>The name(s) that a Practitioner is known by. Where there are multiple, the name that the practitioner is usually known as should be used in the display.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ch-core-hm-1:if officalName with eCH-011 Extension is specified, it can only be put on a name where use attribute is official {family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='officialName').empty() or (family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='officialName').exists() and use='official')}ch-core-hm-2:if orginalName with eCH-011 Extension is specified, it can only be put on a name where use attribute is maiden {family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='originalName').empty() or ((family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='originalName').exists() and use='maiden'))}ch-core-hm-3:ch-ext-ech-11-name can only be put on a family name {descendants().extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name').count()=family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name').count()}ch-core-hm-4:ch-ext-ech-11-firstname can only be put on a given name {descendants().extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-firstname').count()=given.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-firstname').count()}</t>
-  </si>
-  <si>
-    <t>XPN</t>
-  </si>
-  <si>
-    <t>EN (actually, PN)</t>
-  </si>
-  <si>
-    <t>ProviderName</t>
-  </si>
-  <si>
-    <t>eCH-0011: nameData</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactPoint
-</t>
-  </si>
-  <si>
-    <t>A contact detail for the practitioner (that apply to all roles)</t>
-  </si>
-  <si>
-    <t>A contact detail for the practitioner, e.g. a telephone number or an email address.</t>
-  </si>
-  <si>
-    <t>Person may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and to help with identification.  These typically will have home numbers, or mobile numbers that are not role specific.</t>
-  </si>
-  <si>
-    <t>Need to know how to reach a practitioner independent to any roles the practitioner may have.</t>
+    <t>eCH-0046: Contact</t>
   </si>
   <si>
     <t>PRT-15, STF-10, ROL-12</t>
@@ -981,9 +998,6 @@
   </si>
   <si>
     <t>./ContactPoints</t>
-  </si>
-  <si>
-    <t>eCH-0046: Contact</t>
   </si>
   <si>
     <t>Practitioner.telecom.id</t>
@@ -1134,6 +1148,9 @@
 ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
+    <t>eCH-0046: email</t>
+  </si>
+  <si>
     <t>XTN</t>
   </si>
   <si>
@@ -1141,9 +1158,6 @@
   </si>
   <si>
     <t>ContactPoint</t>
-  </si>
-  <si>
-    <t>eCH-0046: email</t>
   </si>
   <si>
     <t>Practitioner.telecom:phone</t>
@@ -1204,6 +1218,9 @@
              (state.empty() or state.memberOf('http://fhir.ch/ig/ch-core/ValueSet/ech-7-cantonabbreviation')))}</t>
   </si>
   <si>
+    <t>eCH-0010: addressInformation</t>
+  </si>
+  <si>
     <t>XAD</t>
   </si>
   <si>
@@ -1213,9 +1230,6 @@
     <t>Address</t>
   </si>
   <si>
-    <t>eCH-0010: addressInformation</t>
-  </si>
-  <si>
     <t>Practitioner.gender</t>
   </si>
   <si>
@@ -1234,6 +1248,9 @@
     <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
   </si>
   <si>
+    <t>eCH-0011: sex. sexType, BFS-33, see ConceptMap http://fhir.ch/ig/ch-core/ConceptMap/sex-ech11-to-fhir</t>
+  </si>
+  <si>
     <t>STF-5</t>
   </si>
   <si>
@@ -1241,9 +1258,6 @@
   </si>
   <si>
     <t>./GenderCode</t>
-  </si>
-  <si>
-    <t>eCH-0011: sex. sexType, BFS-33, see ConceptMap http://fhir.ch/ig/ch-core/ConceptMap/sex-ech11-to-fhir</t>
   </si>
   <si>
     <t>Practitioner.birthDate</t>
@@ -1256,6 +1270,9 @@
     <t>Needed for identification.</t>
   </si>
   <si>
+    <t>eCH-0011: birthData, BFS-31</t>
+  </si>
+  <si>
     <t>STF-6</t>
   </si>
   <si>
@@ -1263,9 +1280,6 @@
   </si>
   <si>
     <t>(not represented in ServD)</t>
-  </si>
-  <si>
-    <t>eCH-0011: birthData, BFS-31</t>
   </si>
   <si>
     <t>Practitioner.photo</t>
@@ -1395,6 +1409,9 @@
     <t>Knowing which language a practitioner speaks can help in facilitating communication with patients.</t>
   </si>
   <si>
+    <t>eCH-0011: languageOfCorrespondance: de, fr, it, rm = Rhaeto-Romance, en, other languages ISO 639-1</t>
+  </si>
+  <si>
     <t>PID-15, NK1-20, LAN-2</t>
   </si>
   <si>
@@ -1402,9 +1419,6 @@
   </si>
   <si>
     <t>./Languages.LanguageSpokenCode</t>
-  </si>
-  <si>
-    <t>eCH-0011: languageOfCorrespondance: de, fr, it, rm = Rhaeto-Romance, en, other languages ISO 639-1</t>
   </si>
 </sst>
 </file>
@@ -1735,17 +1749,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.57421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.57421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.70703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.70703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.17578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="89.51953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1754,27 +1768,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.46484375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="60.68359375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="139.15234375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="49.75" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="99.16015625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="97.55859375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="62.87890625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="143.74609375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="50.953125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2002,16 +2016,16 @@
         <v>85</v>
       </c>
       <c r="AK2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AM2" t="s" s="2">
+      <c r="AN2" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AN2" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>79</v>
@@ -2352,10 +2366,10 @@
         <v>79</v>
       </c>
       <c r="AL5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM5" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="AM5" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>79</v>
@@ -3520,10 +3534,10 @@
         <v>79</v>
       </c>
       <c r="AL15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>79</v>
@@ -3637,10 +3651,10 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>79</v>
@@ -3981,19 +3995,19 @@
         <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="20" hidden="true">
@@ -4099,10 +4113,10 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4330,13 +4344,13 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4449,13 +4463,13 @@
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4568,16 +4582,16 @@
         <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>79</v>
@@ -4685,16 +4699,16 @@
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>79</v>
@@ -4800,16 +4814,16 @@
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -4917,16 +4931,16 @@
         <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>79</v>
@@ -4982,7 +4996,7 @@
         <v>79</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>79</v>
@@ -5030,13 +5044,13 @@
         <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>253</v>
@@ -5045,7 +5059,7 @@
         <v>254</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>79</v>
@@ -5053,7 +5067,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>193</v>
@@ -5154,10 +5168,10 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5168,14 +5182,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>194</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5197,13 +5211,13 @@
         <v>110</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5271,10 +5285,10 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5285,7 +5299,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>195</v>
@@ -5387,13 +5401,13 @@
         <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5404,7 +5418,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>205</v>
@@ -5433,10 +5447,10 @@
         <v>206</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N32" t="s" s="2">
         <v>207</v>
@@ -5506,13 +5520,13 @@
         <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5523,7 +5537,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>213</v>
@@ -5568,7 +5582,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>79</v>
@@ -5625,16 +5639,16 @@
         <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -5642,7 +5656,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>223</v>
@@ -5739,19 +5753,19 @@
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>79</v>
@@ -5759,7 +5773,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>232</v>
@@ -5788,10 +5802,10 @@
         <v>233</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5857,16 +5871,16 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>79</v>
@@ -5874,7 +5888,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>238</v>
@@ -5900,16 +5914,16 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5974,16 +5988,16 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>79</v>
@@ -5991,13 +6005,13 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>183</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>79</v>
@@ -6019,13 +6033,13 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6039,7 +6053,7 @@
         <v>79</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>79</v>
@@ -6087,13 +6101,13 @@
         <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>253</v>
@@ -6102,7 +6116,7 @@
         <v>254</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6110,10 +6124,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6136,7 +6150,7 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>111</v>
@@ -6145,61 +6159,61 @@
         <v>112</v>
       </c>
       <c r="N38" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="P38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q38" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="P38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q38" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="R38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6217,24 +6231,24 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6257,19 +6271,19 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -6318,7 +6332,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6327,33 +6341,33 @@
         <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>299</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6376,19 +6390,19 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -6425,7 +6439,7 @@
         <v>79</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>188</v>
+        <v>308</v>
       </c>
       <c r="AC40" s="2"/>
       <c r="AD40" t="s" s="2">
@@ -6435,7 +6449,7 @@
         <v>115</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6450,27 +6464,27 @@
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>309</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6568,10 +6582,10 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6582,14 +6596,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6611,13 +6625,13 @@
         <v>110</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6685,10 +6699,10 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6699,10 +6713,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6728,10 +6742,10 @@
         <v>154</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6761,10 +6775,10 @@
         <v>200</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>79</v>
@@ -6782,7 +6796,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6791,22 +6805,22 @@
         <v>90</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>319</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>79</v>
+        <v>324</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -6814,10 +6828,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6843,16 +6857,16 @@
         <v>104</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>79</v>
@@ -6901,7 +6915,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -6916,16 +6930,16 @@
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>328</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AM44" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>79</v>
@@ -6933,10 +6947,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6962,16 +6976,16 @@
         <v>154</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -6999,10 +7013,10 @@
         <v>200</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>79</v>
@@ -7020,7 +7034,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7035,16 +7049,16 @@
         <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
@@ -7052,10 +7066,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7078,16 +7092,16 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7137,7 +7151,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7152,13 +7166,13 @@
         <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>108</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7169,10 +7183,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7198,10 +7212,10 @@
         <v>233</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7252,7 +7266,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7267,16 +7281,16 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AL47" t="s" s="2">
-        <v>351</v>
-      </c>
       <c r="AM47" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>79</v>
@@ -7284,13 +7298,13 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>79</v>
@@ -7312,19 +7326,19 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -7373,7 +7387,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7382,36 +7396,36 @@
         <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>361</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>79</v>
@@ -7433,19 +7447,19 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>79</v>
@@ -7494,7 +7508,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7503,36 +7517,36 @@
         <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>79</v>
@@ -7554,19 +7568,19 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>79</v>
@@ -7615,7 +7629,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7624,33 +7638,33 @@
         <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>371</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7673,19 +7687,19 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>79</v>
@@ -7734,7 +7748,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7743,33 +7757,33 @@
         <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>79</v>
+        <v>385</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>382</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7795,14 +7809,14 @@
         <v>154</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -7830,10 +7844,10 @@
         <v>200</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>79</v>
@@ -7851,7 +7865,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -7866,27 +7880,27 @@
         <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>392</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7909,7 +7923,7 @@
         <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>111</v>
@@ -7919,7 +7933,7 @@
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>79</v>
@@ -7968,7 +7982,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -7983,27 +7997,27 @@
         <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>79</v>
+        <v>402</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>399</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8026,7 +8040,7 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>111</v>
@@ -8036,7 +8050,7 @@
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8085,7 +8099,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8103,13 +8117,13 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>403</v>
+        <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>79</v>
@@ -8117,10 +8131,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8143,7 +8157,7 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>111</v>
@@ -8200,7 +8214,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8215,16 +8229,16 @@
         <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>407</v>
+        <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>79</v>
@@ -8232,10 +8246,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8333,10 +8347,10 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8347,14 +8361,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8376,13 +8390,13 @@
         <v>110</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8450,10 +8464,10 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8464,14 +8478,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8493,16 +8507,16 @@
         <v>110</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -8551,7 +8565,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8569,10 +8583,10 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8583,10 +8597,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8612,14 +8626,14 @@
         <v>184</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -8668,7 +8682,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -8686,10 +8700,10 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8700,10 +8714,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8729,10 +8743,10 @@
         <v>206</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8762,28 +8776,28 @@
         <v>144</v>
       </c>
       <c r="Y60" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF60" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>90</v>
@@ -8801,13 +8815,13 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>408</v>
+        <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>79</v>
+        <v>431</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>79</v>
@@ -8815,10 +8829,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8844,14 +8858,14 @@
         <v>233</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>79</v>
@@ -8900,7 +8914,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -8918,13 +8932,13 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>79</v>
+        <v>437</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>79</v>
@@ -8932,10 +8946,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8958,13 +8972,13 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>240</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>241</v>
@@ -9017,7 +9031,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9035,10 +9049,10 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>437</v>
+        <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9049,10 +9063,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9084,10 +9098,10 @@
         <v>112</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>79</v>
@@ -9136,7 +9150,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9151,19 +9165,19 @@
         <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>79</v>
+        <v>447</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>444</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-practitioner.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-practitioner.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$108</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2378" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4028" uniqueCount="529">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T11:06:41+00:00</t>
+    <t>2026-02-11T07:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -275,7 +275,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-pract-1:If a HumanName is provided, at least one HumanName must have a given and family name. {name.where(family.exists() and given.exists()).count()&gt;0 or name.empty()}ch-pract-2:gender unknown is currently not used in Switzerland in eCH and the EPR {gender.empty() or gender!='unknown'}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-pract-1:If a HumanName is provided, at least one HumanName must have a family name. {name.where(family.exists()).count()&gt;0 or name.empty()}ch-pract-2:gender unknown is currently not used in Switzerland in eCH and the EPR {gender.empty() or gender!='unknown'}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -423,7 +423,7 @@
     <t>Practitioner.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -455,7 +455,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -473,7 +473,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -517,7 +517,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -584,7 +584,7 @@
     <t>An Extension</t>
   </si>
   <si>
-    <t>All modifiers SHALL be documented in the profile, in order to be usable.</t>
+    <t>...All modifiers SHALL be documented in the profile, in order to be usable.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -674,7 +674,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -805,19 +805,6 @@
 &lt;/valueIdentifier&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
-    <t>Identifier</t>
-  </si>
-  <si>
     <t>Practitioner.identifier:GLN.id</t>
   </si>
   <si>
@@ -874,7 +861,7 @@
     <t>Practitioner.identifier:GLN.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -937,32 +924,36 @@
 </t>
   </si>
   <si>
-    <t>Name of a human - parts and usage</t>
-  </si>
-  <si>
-    <t>A human's name with the ability to identify parts and usage.</t>
-  </si>
-  <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
+    <t>The name(s) associated with the practitioner</t>
+  </si>
+  <si>
+    <t>The name(s) associated with the practitioner.</t>
+  </si>
+  <si>
+    <t>The selection of the use property should ensure that there is a single usual name specified, and others use the nickname (alias), old, or other values as appropriate.  ++In general, select the value to be used in the ResourceReference.display based on this:++1. There is more than 1 name+2. Use = usual+3. Period is current to the date of the usage+4. Use = official+5. Other order as decided by internal business rules.</t>
   </si>
   <si>
     <t>The name(s) that a Practitioner is known by. Where there are multiple, the name that the practitioner is usually known as should be used in the display.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ch-core-hm-1:if officalName with eCH-011 Extension is specified, it can only be put on a name where use attribute is official {family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='officialName').empty() or (family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='officialName').exists() and use='official')}ch-core-hm-2:if orginalName with eCH-011 Extension is specified, it can only be put on a name where use attribute is maiden {family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='originalName').empty() or ((family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='originalName').exists() and use='maiden'))}ch-core-hm-3:ch-ext-ech-11-name can only be put on a family name {descendants().extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name').count()=family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name').count()}ch-core-hm-4:ch-ext-ech-11-firstname can only be put on a given name {descendants().extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-firstname').count()=given.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-firstname').count()}</t>
-  </si>
-  <si>
     <t>eCH-0011: nameData</t>
   </si>
   <si>
-    <t>XPN</t>
-  </si>
-  <si>
-    <t>EN (actually, PN)</t>
-  </si>
-  <si>
-    <t>ProviderName</t>
+    <t>XCN Components</t>
+  </si>
+  <si>
+    <t>./name</t>
+  </si>
+  <si>
+    <t>./PreferredName (GivenNames, FamilyName, TitleCode)</t>
   </si>
   <si>
     <t>Practitioner.telecom</t>
@@ -1138,26 +1129,170 @@
 </t>
   </si>
   <si>
-    <t>CH Core ContactPoint eCH-0046 Email</t>
-  </si>
-  <si>
-    <t>Details for all kinds of technology mediated contact points for a person or organization, including telephone, email, etc.</t>
-  </si>
-  <si>
-    <t>cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}
-ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
-  </si>
-  <si>
     <t>eCH-0046: email</t>
   </si>
   <si>
-    <t>XTN</t>
-  </si>
-  <si>
-    <t>TEL</t>
-  </si>
-  <si>
-    <t>ContactPoint</t>
+    <t>Practitioner.telecom:email.id</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:email.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:email.system</t>
+  </si>
+  <si>
+    <t>eCH-0046: emailType</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:email.value</t>
+  </si>
+  <si>
+    <t>eCH-0046: emailAddress</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:email.use</t>
+  </si>
+  <si>
+    <t>eCH-0046: emailCategory/otherEmailCategory</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:email.use.id</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.use.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:email.use.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.use.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:email.use.extension:emailCategory</t>
+  </si>
+  <si>
+    <t>emailCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-46-emailcategory}
+</t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>eCH-0046: emailCategory</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:email.use.value</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.use.value</t>
+  </si>
+  <si>
+    <t>Primitive value for code</t>
+  </si>
+  <si>
+    <t>string.value</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:email.rank</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:email.period</t>
+  </si>
+  <si>
+    <t>eCH-0046: validity</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:email.period.id</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.period.id</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:email.period.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.period.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:email.period.start</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Starting time with inclusive boundary</t>
+  </si>
+  <si>
+    <t>The start of the period. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per-1
+</t>
+  </si>
+  <si>
+    <t>eCH-0046: dateFrom</t>
+  </si>
+  <si>
+    <t>DR.1</t>
+  </si>
+  <si>
+    <t>./low</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:email.period.end</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.period.end</t>
+  </si>
+  <si>
+    <t>End time with inclusive boundary, if not ongoing</t>
+  </si>
+  <si>
+    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
+  </si>
+  <si>
+    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>If the end of the period is missing, it means that the period is ongoing</t>
+  </si>
+  <si>
+    <t>Period.end</t>
+  </si>
+  <si>
+    <t>eCH-0046: dateTo</t>
+  </si>
+  <si>
+    <t>DR.2</t>
+  </si>
+  <si>
+    <t>./high</t>
   </si>
   <si>
     <t>Practitioner.telecom:phone</t>
@@ -1170,10 +1305,71 @@
 </t>
   </si>
   <si>
-    <t>CH Core ContactPoint eCH-0046 Phone</t>
-  </si>
-  <si>
     <t>eCH-0046: phone</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:phone.id</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:phone.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:phone.system</t>
+  </si>
+  <si>
+    <t>eCH-0046: phoneType</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:phone.value</t>
+  </si>
+  <si>
+    <t>eCH-0046: phoneNumber</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:phone.use</t>
+  </si>
+  <si>
+    <t>eCH-0046: phoneCategory/otherPhoneCategory</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:phone.use.id</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:phone.use.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:phone.use.extension:phoneCategory</t>
+  </si>
+  <si>
+    <t>phoneCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-46-phonecategory}
+</t>
+  </si>
+  <si>
+    <t>eCH-0046: phoneNumberCategory</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:phone.use.value</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:phone.rank</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:phone.period</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:phone.period.id</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:phone.period.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:phone.period.start</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:phone.period.end</t>
   </si>
   <si>
     <t>Practitioner.telecom:internet</t>
@@ -1186,10 +1382,74 @@
 </t>
   </si>
   <si>
-    <t>CH Core ContactPoint eCH-0046 Internet</t>
-  </si>
-  <si>
     <t>eCH-0046: internet</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:internet.id</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:internet.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:internet.system</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>eCH-0046: internetType</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:internet.value</t>
+  </si>
+  <si>
+    <t>eCH-0046: internetAddress</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:internet.use</t>
+  </si>
+  <si>
+    <t>eCH-0046: internetCategory/otherInternetCategory</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:internet.use.id</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:internet.use.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:internet.use.extension:internetCategory</t>
+  </si>
+  <si>
+    <t>internetCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-46-internetcategory}
+</t>
+  </si>
+  <si>
+    <t>eCH-0046: internetCategory</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:internet.use.value</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:internet.rank</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:internet.period</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:internet.period.id</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:internet.period.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:internet.period.start</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:internet.period.end</t>
   </si>
   <si>
     <t>Practitioner.address</t>
@@ -1199,35 +1459,26 @@
 </t>
   </si>
   <si>
-    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats)</t>
-  </si>
-  <si>
-    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
-  </si>
-  <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+    <t>Address(es) of the practitioner that are not role specific (typically home address)</t>
+  </si>
+  <si>
+    <t>Address(es) of the practitioner that are not role specific (typically home address). +Work addresses are not typically entered in this property as they are usually role dependent.</t>
+  </si>
+  <si>
+    <t>The PractitionerRole does not have an address value on it, as it is expected that the location property be used for this purpose (which has an address).</t>
   </si>
   <si>
     <t>The home/mailing address of the practitioner is often required for employee administration purposes, and also for some rostering services where the start point (practitioners home) can be used in calculations.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ch-addr-2:For a Swiss address, a canton abbreviation from the value set 'eCH-0007 Canton Abbreviation' must be used. {country.extension.where(url = 'http://hl7.org/fhir/StructureDefinition/iso21090-SC-coding').empty() or 
-            (country.extension.where(url = 'http://hl7.org/fhir/StructureDefinition/iso21090-SC-coding').value.code.startsWith('CH') = false) or 
-            (country.extension.where(url = 'http://hl7.org/fhir/StructureDefinition/iso21090-SC-coding').value.code.startsWith('CH').exists() and 
-             (state.empty() or state.memberOf('http://fhir.ch/ig/ch-core/ValueSet/ech-7-cantonabbreviation')))}</t>
-  </si>
-  <si>
-    <t>eCH-0010: addressInformation</t>
-  </si>
-  <si>
-    <t>XAD</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>Address</t>
+    <t>ORC-24, STF-11, ROL-11, PRT-14</t>
+  </si>
+  <si>
+    <t>./addr</t>
+  </si>
+  <si>
+    <t>./Addresses</t>
   </si>
   <si>
     <t>Practitioner.gender</t>
@@ -1740,7 +1991,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO63"/>
+  <dimension ref="A1:AO108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1749,17 +2000,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.70703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.70703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.03125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.8984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.31640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="89.51953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.74609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1768,27 +2019,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.51171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="97.55859375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="62.87890625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="143.74609375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="50.953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="83.63671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="28.47265625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="44.90625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4946,7 +5197,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>246</v>
       </c>
@@ -4973,7 +5224,7 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>248</v>
@@ -5044,7 +5295,7 @@
         <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>102</v>
@@ -5053,21 +5304,21 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>253</v>
+        <v>189</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>254</v>
+        <v>190</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>255</v>
+        <v>191</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>193</v>
@@ -5182,14 +5433,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>194</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5211,13 +5462,13 @@
         <v>110</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5299,7 +5550,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>195</v>
@@ -5418,7 +5669,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>205</v>
@@ -5447,10 +5698,10 @@
         <v>206</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="N32" t="s" s="2">
         <v>207</v>
@@ -5537,7 +5788,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>213</v>
@@ -5582,7 +5833,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>79</v>
@@ -5656,7 +5907,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>223</v>
@@ -5753,7 +6004,7 @@
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
@@ -5773,7 +6024,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>232</v>
@@ -5802,10 +6053,10 @@
         <v>233</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5888,7 +6139,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>238</v>
@@ -5914,16 +6165,16 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6005,13 +6256,13 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>183</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>79</v>
@@ -6030,16 +6281,16 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6053,7 +6304,7 @@
         <v>79</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>79</v>
@@ -6101,7 +6352,7 @@
         <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>102</v>
@@ -6110,24 +6361,24 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>253</v>
+        <v>189</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>254</v>
+        <v>190</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>255</v>
+        <v>191</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6150,7 +6401,7 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>111</v>
@@ -6159,16 +6410,16 @@
         <v>112</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q38" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>79</v>
@@ -6213,7 +6464,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6234,21 +6485,21 @@
         <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6268,22 +6519,22 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="O39" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -6332,7 +6583,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6341,22 +6592,22 @@
         <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>297</v>
+        <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>79</v>
@@ -6364,10 +6615,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6390,19 +6641,19 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -6439,7 +6690,7 @@
         <v>79</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AC40" s="2"/>
       <c r="AD40" t="s" s="2">
@@ -6449,7 +6700,7 @@
         <v>115</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6464,16 +6715,16 @@
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>79</v>
@@ -6481,10 +6732,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6596,14 +6847,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6625,13 +6876,13 @@
         <v>110</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6713,10 +6964,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6742,10 +6993,10 @@
         <v>154</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6775,10 +7026,10 @@
         <v>200</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>79</v>
@@ -6796,7 +7047,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6805,7 +7056,7 @@
         <v>90</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>102</v>
@@ -6814,13 +7065,13 @@
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -6828,10 +7079,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6857,16 +7108,16 @@
         <v>104</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>79</v>
@@ -6915,7 +7166,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -6933,10 +7184,10 @@
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>231</v>
@@ -6947,10 +7198,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6976,16 +7227,16 @@
         <v>154</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -7013,10 +7264,10 @@
         <v>200</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>79</v>
@@ -7034,7 +7285,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7052,13 +7303,13 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
@@ -7066,10 +7317,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7092,16 +7343,16 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7151,7 +7402,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7183,10 +7434,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7212,10 +7463,10 @@
         <v>233</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7266,7 +7517,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7287,7 +7538,7 @@
         <v>175</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>237</v>
@@ -7298,13 +7549,13 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>79</v>
@@ -7323,22 +7574,22 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>358</v>
+        <v>299</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>359</v>
+        <v>300</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -7387,7 +7638,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7396,22 +7647,22 @@
         <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>360</v>
+        <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>362</v>
+        <v>305</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>363</v>
+        <v>306</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>364</v>
+        <v>307</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -7419,14 +7670,12 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7435,7 +7684,7 @@
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7447,20 +7696,16 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>367</v>
+        <v>104</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>368</v>
+        <v>105</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7508,31 +7753,31 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>302</v>
+        <v>107</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>362</v>
+        <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>363</v>
+        <v>108</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>79</v>
@@ -7540,16 +7785,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7568,20 +7811,18 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>372</v>
+        <v>110</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>373</v>
+        <v>255</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>359</v>
+        <v>256</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7617,19 +7858,19 @@
         <v>79</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>302</v>
+        <v>116</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7638,22 +7879,22 @@
         <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>360</v>
+        <v>117</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>374</v>
+        <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>362</v>
+        <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>363</v>
+        <v>108</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>79</v>
@@ -7661,10 +7902,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>375</v>
+        <v>310</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7672,10 +7913,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7684,29 +7925,25 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>376</v>
+        <v>154</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>377</v>
+        <v>311</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>79</v>
@@ -7724,13 +7961,13 @@
         <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>79</v>
@@ -7748,31 +7985,31 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>375</v>
+        <v>315</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>252</v>
+        <v>316</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>381</v>
+        <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>383</v>
+        <v>317</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>384</v>
+        <v>318</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>385</v>
+        <v>319</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>79</v>
@@ -7780,10 +8017,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>386</v>
+        <v>320</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7791,7 +8028,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>90</v>
@@ -7806,17 +8043,19 @@
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>387</v>
+        <v>321</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>389</v>
+        <v>324</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -7841,13 +8080,13 @@
         <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>390</v>
+        <v>79</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>391</v>
+        <v>79</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>79</v>
@@ -7865,7 +8104,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>386</v>
+        <v>325</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -7880,16 +8119,16 @@
         <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>393</v>
+        <v>326</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>394</v>
+        <v>327</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>395</v>
+        <v>231</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
@@ -7897,10 +8136,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>396</v>
+        <v>360</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>396</v>
+        <v>328</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7917,23 +8156,25 @@
         <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>397</v>
+        <v>154</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>111</v>
+        <v>329</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="O53" t="s" s="2">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>79</v>
@@ -7958,13 +8199,13 @@
         <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>79</v>
+        <v>333</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>79</v>
+        <v>334</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>79</v>
@@ -7982,7 +8223,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>396</v>
+        <v>335</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -7997,16 +8238,16 @@
         <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>400</v>
+        <v>336</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>401</v>
+        <v>337</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>402</v>
+        <v>338</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
@@ -8014,10 +8255,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>403</v>
+        <v>362</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8028,7 +8269,7 @@
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8040,18 +8281,16 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>404</v>
+        <v>104</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>111</v>
+        <v>364</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>112</v>
+        <v>365</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>405</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8099,19 +8338,19 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>403</v>
+        <v>107</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
@@ -8120,10 +8359,10 @@
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>407</v>
+        <v>79</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>79</v>
@@ -8131,10 +8370,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>408</v>
+        <v>367</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8157,13 +8396,13 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>409</v>
+        <v>110</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8202,19 +8441,17 @@
         <v>79</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="AC55" s="2"/>
       <c r="AD55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>408</v>
+        <v>116</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8226,19 +8463,19 @@
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>79</v>
@@ -8246,12 +8483,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>413</v>
+        <v>368</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8272,13 +8511,13 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>104</v>
+        <v>370</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>105</v>
+        <v>371</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>106</v>
+        <v>372</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8329,28 +8568,28 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8361,21 +8600,21 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>414</v>
+        <v>375</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>414</v>
+        <v>376</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8387,17 +8626,15 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>259</v>
+        <v>377</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>79</v>
@@ -8446,19 +8683,19 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>116</v>
+        <v>378</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
@@ -8467,7 +8704,7 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8478,46 +8715,44 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>415</v>
+        <v>379</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>415</v>
+        <v>339</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>110</v>
+        <v>340</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>417</v>
+        <v>341</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>418</v>
+        <v>342</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8565,28 +8800,28 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>420</v>
+        <v>344</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8597,10 +8832,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>421</v>
+        <v>380</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>421</v>
+        <v>345</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8611,7 +8846,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8620,21 +8855,19 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>184</v>
+        <v>233</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>422</v>
+        <v>346</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>423</v>
+        <v>347</v>
       </c>
       <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>424</v>
-      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>79</v>
       </c>
@@ -8682,13 +8915,13 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>421</v>
+        <v>348</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>79</v>
@@ -8697,16 +8930,16 @@
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>425</v>
+        <v>349</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>79</v>
+        <v>237</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>79</v>
@@ -8714,10 +8947,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>426</v>
+        <v>382</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>426</v>
+        <v>383</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8725,7 +8958,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>90</v>
@@ -8740,13 +8973,13 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>206</v>
+        <v>104</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>427</v>
+        <v>105</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>428</v>
+        <v>106</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8773,13 +9006,13 @@
         <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>79</v>
@@ -8797,10 +9030,10 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>426</v>
+        <v>107</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>90</v>
@@ -8809,7 +9042,7 @@
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
@@ -8818,10 +9051,10 @@
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>411</v>
+        <v>108</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>79</v>
@@ -8829,21 +9062,21 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>432</v>
+        <v>384</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>432</v>
+        <v>385</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -8855,18 +9088,18 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>233</v>
+        <v>110</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>433</v>
+        <v>255</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>79</v>
       </c>
@@ -8902,31 +9135,31 @@
         <v>79</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>432</v>
+        <v>116</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>79</v>
@@ -8935,10 +9168,10 @@
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>436</v>
+        <v>108</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>437</v>
+        <v>79</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>79</v>
@@ -8946,10 +9179,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>438</v>
+        <v>387</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8969,19 +9202,19 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>274</v>
+        <v>388</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>240</v>
+        <v>389</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>439</v>
+        <v>390</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>241</v>
+        <v>391</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9031,7 +9264,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>438</v>
+        <v>392</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9040,19 +9273,19 @@
         <v>90</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>440</v>
+        <v>396</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9063,10 +9296,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>441</v>
+        <v>397</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>441</v>
+        <v>398</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9077,7 +9310,7 @@
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9086,27 +9319,27 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>206</v>
+        <v>388</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>111</v>
+        <v>399</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>112</v>
+        <v>400</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="R63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9126,13 +9359,13 @@
         <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>79</v>
@@ -9150,48 +9383,5301 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>441</v>
+        <v>403</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC71" s="2"/>
+      <c r="AD71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="D72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q79" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="D80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="P85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK85" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="AL63" t="s" s="2">
+      <c r="AL85" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AM63" t="s" s="2">
+      <c r="B86" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="AN63" t="s" s="2">
+      <c r="B87" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC87" s="2"/>
+      <c r="AD87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="AO63" t="s" s="2">
+      <c r="B88" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="D88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="O95" s="2"/>
+      <c r="P95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q95" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="P96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AO96" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AO97" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="P98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="P99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AO100" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="P103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="P104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO104" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AO105" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="P106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO107" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="P108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AO108" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO63">
-    <filterColumn colId="6">
+  <autoFilter ref="A1:AO108">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI62">
+  <conditionalFormatting sqref="A2:AI107">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
